--- a/Отчет/Сравнительная таблица.xlsx
+++ b/Отчет/Сравнительная таблица.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\SDAnalyze\Отчет\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A40E34-203B-49D4-A301-CD759CD19471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5458D67D-2A43-4699-B8BA-48F382D33E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$D$3:$D$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,54 +28,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>ROC AUC</t>
   </si>
   <si>
-    <t>Baseline</t>
-  </si>
-  <si>
-    <t>NN + Кластеризация</t>
-  </si>
-  <si>
-    <t>NN + Горячее кодирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NN + Отбор 3 признаков </t>
-  </si>
-  <si>
-    <t>NN + Хеширование 23 признака</t>
-  </si>
-  <si>
-    <t>NN + Отбор 10 признаков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NN + Отбор 15 признаков </t>
-  </si>
-  <si>
-    <t>NN + Факторизация (Label Encoding)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NN + Отбор 20 признаков </t>
-  </si>
-  <si>
-    <t>NN + "умное" OHE</t>
-  </si>
-  <si>
-    <t>NN + "умное" Хэширование 23 признаков</t>
-  </si>
-  <si>
-    <t>NN + "умное" Хэширование 300 признаков</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Метод</t>
   </si>
   <si>
-    <t>LogReg + "умное" Горячее кодирование</t>
+    <t>XGBClassifier + OneHotEncoding</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 24 признака</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 50 признака</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 100 признаков</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 200 признаков</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 300 признаков</t>
+  </si>
+  <si>
+    <t>XGBClassifier + Хэширование 400 признаков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN + восстановление градации  + OneHotEncoding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XGBClassifier + восстановление градации  + OneHotEncoding </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7701 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7454 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7453 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7449 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7432 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7427 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7419 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0014</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7343 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7279 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0013</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7163 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0016</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0,7506 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 3*0,0013</t>
+    </r>
+  </si>
+  <si>
+    <t>CatBoostCLassifer + Факторизация</t>
+  </si>
+  <si>
+    <t>XGBClassifier r + Факторизация</t>
+  </si>
+  <si>
+    <t>LogReg r + Факторизация с применением полинома второй степени</t>
   </si>
 </sst>
 </file>
@@ -80,12 +234,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,10 +292,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -410,24 +584,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:D16"/>
+  <dimension ref="B3:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -437,146 +612,137 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.54</v>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81379999999999997</v>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.85319999999999996</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.85609999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.85829999999999995</v>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.86019999999999996</v>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.86519999999999997</v>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
-        <v>0.86539999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.86580000000000001</v>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.87209999999999999</v>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.89059999999999995</v>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>